--- a/data/trans_orig/P5709-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>357642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>331472</v>
+        <v>331002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>384712</v>
+        <v>382356</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.515324750312227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4776175157875565</v>
+        <v>0.4769402492845446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5543304118428787</v>
+        <v>0.5509362924729528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>303</v>
@@ -765,19 +765,19 @@
         <v>294812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268643</v>
+        <v>269430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>321323</v>
+        <v>320112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4282872214010368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3902702951025522</v>
+        <v>0.3914137313245471</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4668013421508919</v>
+        <v>0.4650411452819192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>654</v>
@@ -786,19 +786,19 @@
         <v>652454</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>618762</v>
+        <v>612978</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>690665</v>
+        <v>690344</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4719842052649343</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4476115880907387</v>
+        <v>0.4434275321155883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4996260306177051</v>
+        <v>0.4993939684427156</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>196517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>173220</v>
+        <v>173136</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220545</v>
+        <v>220406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2831612983065734</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2495921224624996</v>
+        <v>0.2494708042901528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3177821162530697</v>
+        <v>0.3175819796010506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -836,19 +836,19 @@
         <v>181206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>158997</v>
+        <v>159503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>206213</v>
+        <v>205548</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2632462811406761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2309826716527676</v>
+        <v>0.2317179864499619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2995746416903663</v>
+        <v>0.2986086701723759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>377</v>
@@ -857,19 +857,19 @@
         <v>377723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>343544</v>
+        <v>346254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>411043</v>
+        <v>413221</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2732445680248937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2485196319310564</v>
+        <v>0.250480060218141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2973479769941146</v>
+        <v>0.2989235659510456</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>115373</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97085</v>
+        <v>96988</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135707</v>
+        <v>136504</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1662402652325741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1398893683199789</v>
+        <v>0.1397490929688899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1955402735454878</v>
+        <v>0.1966875652709323</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>150</v>
@@ -907,19 +907,19 @@
         <v>150964</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130693</v>
+        <v>130627</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174018</v>
+        <v>174360</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2193124024548639</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1898642221354332</v>
+        <v>0.1897685201513105</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2528037465213945</v>
+        <v>0.2533003511117739</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>264</v>
@@ -928,19 +928,19 @@
         <v>266337</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>238350</v>
+        <v>239170</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>296463</v>
+        <v>295741</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1926676625037645</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.172422497971315</v>
+        <v>0.1730150496250259</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2144610288991642</v>
+        <v>0.213938440336287</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>22571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14755</v>
+        <v>15144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34190</v>
+        <v>34629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03252193680310414</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02126099184733749</v>
+        <v>0.02182155833089157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04926384033611587</v>
+        <v>0.0498973013942609</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -978,19 +978,19 @@
         <v>52419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39668</v>
+        <v>39782</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67933</v>
+        <v>66995</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07615084610897771</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0576273533642717</v>
+        <v>0.05779342280475121</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09868927985342807</v>
+        <v>0.09732674001027922</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -999,19 +999,19 @@
         <v>74989</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57804</v>
+        <v>59233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92488</v>
+        <v>93510</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05424705621756801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04181528839158025</v>
+        <v>0.04284891361978747</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06690589304133543</v>
+        <v>0.06764505448898582</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5796</v>
+        <v>5749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002751749345521332</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0083519205162885</v>
+        <v>0.008283732539005394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1049,19 +1049,19 @@
         <v>8951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4531</v>
+        <v>4380</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17766</v>
+        <v>16431</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01300324889444546</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006582877999970832</v>
+        <v>0.006363588569295513</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02580956275795308</v>
+        <v>0.02387080363289454</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1070,19 +1070,19 @@
         <v>10861</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5685</v>
+        <v>5942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19000</v>
+        <v>20450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007856507988839424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004112220518504065</v>
+        <v>0.004298690013565319</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01374423285655138</v>
+        <v>0.0147932853786849</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>521181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>488207</v>
+        <v>485319</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>552954</v>
+        <v>554390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5424921749454139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5081696167552089</v>
+        <v>0.5051639778284628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5755647885089765</v>
+        <v>0.5770587420810235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>453</v>
@@ -1195,19 +1195,19 @@
         <v>474275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>439838</v>
+        <v>443640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>505773</v>
+        <v>503959</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4903369603342257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4547344736447424</v>
+        <v>0.4586647181980407</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5229026037066368</v>
+        <v>0.5210263439289884</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>935</v>
@@ -1216,19 +1216,19 @@
         <v>995455</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>949262</v>
+        <v>949942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1040587</v>
+        <v>1041106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.516326287699293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.492366691752668</v>
+        <v>0.4927190018077985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5397353517474009</v>
+        <v>0.5400044485912525</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>244346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216607</v>
+        <v>216169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269740</v>
+        <v>276666</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2543371782665355</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2254643456662095</v>
+        <v>0.2250081726381293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2807696487431827</v>
+        <v>0.2879786157654635</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -1266,19 +1266,19 @@
         <v>247276</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220829</v>
+        <v>221441</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>274965</v>
+        <v>275832</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2556501214770451</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2283083093774105</v>
+        <v>0.2289404175146681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2842774536374439</v>
+        <v>0.2851742223686556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>460</v>
@@ -1287,19 +1287,19 @@
         <v>491621</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>451790</v>
+        <v>454130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>530809</v>
+        <v>533451</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2549958722104271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2343358309074016</v>
+        <v>0.2355499477021782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2753220827421238</v>
+        <v>0.2766919998718122</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>154021</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>132806</v>
+        <v>131628</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>179208</v>
+        <v>176647</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1603194847882828</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1382365267932044</v>
+        <v>0.1370103968148542</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.186536207879354</v>
+        <v>0.1838699604967431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>161</v>
@@ -1337,19 +1337,19 @@
         <v>175454</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>150221</v>
+        <v>154007</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>200301</v>
+        <v>204177</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1813962397481211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.155308204725322</v>
+        <v>0.1592224123752549</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2070848842360096</v>
+        <v>0.2110919737854189</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>307</v>
@@ -1358,19 +1358,19 @@
         <v>329476</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>294950</v>
+        <v>293175</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>362350</v>
+        <v>362602</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1708935376016892</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1529858214521705</v>
+        <v>0.1520649043095612</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1879448353147358</v>
+        <v>0.1880755106691832</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>30955</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21967</v>
+        <v>20937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45110</v>
+        <v>43303</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03222116561556167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02286488574205279</v>
+        <v>0.02179304631239274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04695485716828095</v>
+        <v>0.04507335882732416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1408,19 +1408,19 @@
         <v>54537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40564</v>
+        <v>40785</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71393</v>
+        <v>69813</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.056383676959881</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04193770518742801</v>
+        <v>0.04216622995055144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07381103210829065</v>
+        <v>0.07217709496230999</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -1429,19 +1429,19 @@
         <v>85492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67537</v>
+        <v>66754</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106987</v>
+        <v>104815</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04434331969223095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03503033036168923</v>
+        <v>0.0346241744645466</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05549251130133832</v>
+        <v>0.05436597282213158</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>10212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4791</v>
+        <v>4650</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22079</v>
+        <v>19803</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01062999638420609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004987343248136929</v>
+        <v>0.004840243719922834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02298175289410267</v>
+        <v>0.02061249318599018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1479,19 +1479,19 @@
         <v>15701</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8314</v>
+        <v>9271</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25478</v>
+        <v>24817</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0162330014807271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008595313146648171</v>
+        <v>0.009584604938785928</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02634079138148709</v>
+        <v>0.02565773702224941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1500,19 +1500,19 @@
         <v>25914</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18068</v>
+        <v>16538</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38285</v>
+        <v>38972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01344098279635978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009371494214170474</v>
+        <v>0.008578039077162961</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01985763719043317</v>
+        <v>0.02021393793493264</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>417900</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>390506</v>
+        <v>391973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>443444</v>
+        <v>444763</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6159091498683436</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5755348411787302</v>
+        <v>0.5776982314890877</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6535563767339641</v>
+        <v>0.655501012242042</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>392</v>
@@ -1625,19 +1625,19 @@
         <v>383572</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>356870</v>
+        <v>356502</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>409360</v>
+        <v>407175</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5609088103075529</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.521861052719338</v>
+        <v>0.5213227005681446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5986189834317921</v>
+        <v>0.5954237442089482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>785</v>
@@ -1646,19 +1646,19 @@
         <v>801472</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>761777</v>
+        <v>768500</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>835672</v>
+        <v>839988</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5883013467754883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5591640529784108</v>
+        <v>0.5640986376707864</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6134051343204249</v>
+        <v>0.6165731323671338</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>151429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>129143</v>
+        <v>128806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174436</v>
+        <v>174221</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2231795176309936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1903338166503218</v>
+        <v>0.1898370495384474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2570874921725925</v>
+        <v>0.2567710807578017</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>147</v>
@@ -1696,19 +1696,19 @@
         <v>140461</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121296</v>
+        <v>120366</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162891</v>
+        <v>162964</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2054000059727006</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1773752211265425</v>
+        <v>0.1760138692427631</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2382003502364611</v>
+        <v>0.2383064248304476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>292</v>
@@ -1717,19 +1717,19 @@
         <v>291890</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>262080</v>
+        <v>261141</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>322054</v>
+        <v>323263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2142549680578632</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1923738347919078</v>
+        <v>0.1916841141803133</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2363959664606167</v>
+        <v>0.2372836598528843</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>81711</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>65012</v>
+        <v>65177</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>100583</v>
+        <v>99524</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1204269437925741</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09581586994552135</v>
+        <v>0.09605869747063815</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1482411595417787</v>
+        <v>0.1466804027174059</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>111</v>
@@ -1767,19 +1767,19 @@
         <v>111210</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92292</v>
+        <v>93843</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>131192</v>
+        <v>129969</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1626255292560659</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1349618914552375</v>
+        <v>0.1372293027397193</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1918461075095146</v>
+        <v>0.1900580140957188</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>189</v>
@@ -1788,19 +1788,19 @@
         <v>192921</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>171177</v>
+        <v>169706</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>222585</v>
+        <v>219533</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1416088173514717</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1256479851376976</v>
+        <v>0.1245687302985718</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1633832845937167</v>
+        <v>0.1611428907530666</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>23036</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13763</v>
+        <v>14384</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34744</v>
+        <v>35064</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03395076398194134</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02028431559093278</v>
+        <v>0.02119912171586356</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05120678134158779</v>
+        <v>0.05167782144484114</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -1838,19 +1838,19 @@
         <v>42010</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30459</v>
+        <v>30893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56825</v>
+        <v>56543</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06143302135978734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04454072143038027</v>
+        <v>0.0451754402267467</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08309615487550556</v>
+        <v>0.08268418677478717</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -1859,19 +1859,19 @@
         <v>65046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50266</v>
+        <v>50340</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82703</v>
+        <v>81511</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04774567427328853</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0368968498723991</v>
+        <v>0.03695077150941006</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06070604093478989</v>
+        <v>0.0598312791583507</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>4433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>976</v>
+        <v>1056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11082</v>
+        <v>12256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006533624726147499</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001438688223964873</v>
+        <v>0.001556612422211871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01633299988687279</v>
+        <v>0.01806311616967003</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1909,19 +1909,19 @@
         <v>6587</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2251</v>
+        <v>2110</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14672</v>
+        <v>14579</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009632633103893399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003291836308543837</v>
+        <v>0.00308599775121974</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02145531860791549</v>
+        <v>0.02131895026388373</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1930,19 +1930,19 @@
         <v>11020</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5378</v>
+        <v>5506</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20747</v>
+        <v>20565</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008089193541888237</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003947929893597495</v>
+        <v>0.004041734432156482</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01522898861542593</v>
+        <v>0.0150951399721196</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>516400</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>485240</v>
+        <v>488683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>546676</v>
+        <v>545079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5480658814130688</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5149952020690479</v>
+        <v>0.5186494462467043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5801985068809685</v>
+        <v>0.5785041144851073</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>508</v>
@@ -2055,19 +2055,19 @@
         <v>523427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>489919</v>
+        <v>491785</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>555258</v>
+        <v>555507</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5039674143537195</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4717052440032167</v>
+        <v>0.473501913742539</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5346157708388471</v>
+        <v>0.5348555761453375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1057</v>
@@ -2076,19 +2076,19 @@
         <v>1039826</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>995205</v>
+        <v>997887</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1084175</v>
+        <v>1081794</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5249437041372527</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5024172809715174</v>
+        <v>0.503770992941452</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5473323986611438</v>
+        <v>0.5461307197849935</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>228865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205583</v>
+        <v>204766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>257440</v>
+        <v>256210</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2428997503539405</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2181896297571082</v>
+        <v>0.2173225607912139</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2732262225831851</v>
+        <v>0.2719212731039471</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>228</v>
@@ -2126,19 +2126,19 @@
         <v>235886</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>210136</v>
+        <v>209338</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>264145</v>
+        <v>265081</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.227116752739454</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2023242877353991</v>
+        <v>0.2015552430513232</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.254325328712847</v>
+        <v>0.2552265255091188</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>464</v>
@@ -2147,19 +2147,19 @@
         <v>464752</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>427949</v>
+        <v>424892</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>501590</v>
+        <v>501689</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2346242411781954</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.216044901592568</v>
+        <v>0.2145017395296133</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2532217215579351</v>
+        <v>0.2532713554117426</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>126184</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>105579</v>
+        <v>108940</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>145727</v>
+        <v>148541</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1339217610869161</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.112053088933917</v>
+        <v>0.1156202506184316</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1546628280347186</v>
+        <v>0.1576492430199398</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>162</v>
@@ -2197,19 +2197,19 @@
         <v>170977</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>148781</v>
+        <v>148086</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>195858</v>
+        <v>197601</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1646211323020338</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1432499234365847</v>
+        <v>0.1425807575733749</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1885764281345628</v>
+        <v>0.1902552632248456</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>299</v>
@@ -2218,19 +2218,19 @@
         <v>297162</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>267106</v>
+        <v>262574</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>329408</v>
+        <v>325972</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1500183819181281</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1348452225779279</v>
+        <v>0.1325574043705634</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1662975377979483</v>
+        <v>0.1645631656492559</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>58310</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44936</v>
+        <v>44692</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73466</v>
+        <v>75327</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06188546004536303</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04769135625736803</v>
+        <v>0.04743267148887408</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07797153510912833</v>
+        <v>0.07994636042640971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>82</v>
@@ -2268,19 +2268,19 @@
         <v>88930</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>72608</v>
+        <v>69796</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110847</v>
+        <v>108581</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08562358735828349</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06990853334074831</v>
+        <v>0.06720085192311029</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1067261046009964</v>
+        <v>0.1045446594462519</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>141</v>
@@ -2289,19 +2289,19 @@
         <v>147240</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>124336</v>
+        <v>125586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>173830</v>
+        <v>172385</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07433208743462216</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06276943806775515</v>
+        <v>0.06340037430442445</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08775601819978729</v>
+        <v>0.0870263030045714</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>12463</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7388</v>
+        <v>6605</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21598</v>
+        <v>20411</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01322714710071165</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007840827251270163</v>
+        <v>0.007009677347215824</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02292221061803269</v>
+        <v>0.02166297594300978</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2339,19 +2339,19 @@
         <v>19392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12399</v>
+        <v>11284</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31540</v>
+        <v>30263</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01867111324650918</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01193819032881867</v>
+        <v>0.01086481589368944</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03036791949495458</v>
+        <v>0.02913760636709577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2360,19 +2360,19 @@
         <v>31855</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21937</v>
+        <v>22048</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45227</v>
+        <v>46191</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0160815853318017</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01107439743359837</v>
+        <v>0.01113045785430668</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02283247416524253</v>
+        <v>0.02331886892342191</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1813122</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1755196</v>
+        <v>1752352</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1870034</v>
+        <v>1865965</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.553547488814082</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5358624888686638</v>
+        <v>0.5349944704638598</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5709225968277061</v>
+        <v>0.5696803305672674</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1656</v>
@@ -2485,19 +2485,19 @@
         <v>1676085</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1618617</v>
+        <v>1617623</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1735340</v>
+        <v>1734407</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4961701200567525</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4791578887211184</v>
+        <v>0.4788633909321318</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5137110715066606</v>
+        <v>0.5134351123293742</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3431</v>
@@ -2506,19 +2506,19 @@
         <v>3489208</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3408214</v>
+        <v>3409927</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3574939</v>
+        <v>3576635</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5244164656440657</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5122433432634054</v>
+        <v>0.5125009128324484</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.537301677013737</v>
+        <v>0.5375565783233959</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>821158</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>774642</v>
+        <v>777931</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>874426</v>
+        <v>879405</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2507001117288497</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.236498617197951</v>
+        <v>0.2375030174537585</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2669627534875254</v>
+        <v>0.2684830486874449</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>787</v>
@@ -2556,19 +2556,19 @@
         <v>804829</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>752858</v>
+        <v>757901</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>853885</v>
+        <v>855347</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2382526782156029</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2228679382999394</v>
+        <v>0.224360662375688</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2527749387969442</v>
+        <v>0.2532074912951293</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1593</v>
@@ -2577,19 +2577,19 @@
         <v>1625986</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1556026</v>
+        <v>1555280</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1697301</v>
+        <v>1690731</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2443804340940103</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2338656035477362</v>
+        <v>0.2337534862246643</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2550987376223641</v>
+        <v>0.254111257231331</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>477289</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>436874</v>
+        <v>438829</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>521565</v>
+        <v>516647</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1457166836219165</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1333780209467212</v>
+        <v>0.1339749202094583</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.159234313309646</v>
+        <v>0.1577325919507715</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>584</v>
@@ -2627,19 +2627,19 @@
         <v>608605</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>563648</v>
+        <v>567847</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>656565</v>
+        <v>656309</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1801649416248685</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1668562485098037</v>
+        <v>0.1680991244949623</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1943623398860848</v>
+        <v>0.1942867180383367</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1059</v>
@@ -2648,19 +2648,19 @@
         <v>1085894</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1025798</v>
+        <v>1026162</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1143332</v>
+        <v>1151305</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1632063842440369</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1541740152113168</v>
+        <v>0.1542287214999166</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1718390185363097</v>
+        <v>0.1730373907189645</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>134872</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>114438</v>
+        <v>114320</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>161086</v>
+        <v>160378</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04117644273769751</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03493795347777107</v>
+        <v>0.03490198869642875</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04917958587625428</v>
+        <v>0.04896352619083821</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>222</v>
@@ -2698,19 +2698,19 @@
         <v>237895</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>207958</v>
+        <v>207301</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>270018</v>
+        <v>269100</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07042392909040042</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06156154729900224</v>
+        <v>0.06136701478183304</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07993324089126931</v>
+        <v>0.07966141440328954</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>352</v>
@@ -2719,19 +2719,19 @@
         <v>372767</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>335924</v>
+        <v>333199</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>413846</v>
+        <v>415422</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05602566327635258</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05048825246350092</v>
+        <v>0.05007874128431077</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06219976099793848</v>
+        <v>0.06243660616897728</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>29018</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19612</v>
+        <v>18621</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>42581</v>
+        <v>40929</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008859273097454295</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005987703417379453</v>
+        <v>0.005685027627285255</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01299989163943089</v>
+        <v>0.01249572146758911</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>47</v>
@@ -2769,19 +2769,19 @@
         <v>50631</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37043</v>
+        <v>37843</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67472</v>
+        <v>68616</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01498833101237562</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01096580366614976</v>
+        <v>0.01120269187726848</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0199737850010174</v>
+        <v>0.02031218940568429</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -2790,19 +2790,19 @@
         <v>79649</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>63076</v>
+        <v>62879</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>98962</v>
+        <v>100724</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01197105274153456</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009480049205173447</v>
+        <v>0.009450557644098113</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0148736650576933</v>
+        <v>0.01513848588251815</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>430895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>405415</v>
+        <v>403332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>457180</v>
+        <v>456658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6142101162129794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5778896624684657</v>
+        <v>0.5749209997114935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6516774871652631</v>
+        <v>0.6509326320604855</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>382</v>
@@ -3155,19 +3155,19 @@
         <v>406454</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377716</v>
+        <v>378615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>432938</v>
+        <v>433641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5855004399139125</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5441025090880952</v>
+        <v>0.5453970475996129</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6236507814762463</v>
+        <v>0.6246624405264364</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>797</v>
@@ -3176,19 +3176,19 @@
         <v>837350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>797564</v>
+        <v>801669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>875426</v>
+        <v>876666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5999308036792688</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5714258409749124</v>
+        <v>0.5743664686441028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.627210824154779</v>
+        <v>0.6280995720484729</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>162131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141831</v>
+        <v>139191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186161</v>
+        <v>184906</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2311053634613066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2021702658370017</v>
+        <v>0.1984071415905566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2653586032444498</v>
+        <v>0.263569697869795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>153</v>
@@ -3226,19 +3226,19 @@
         <v>164072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142407</v>
+        <v>142499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>191801</v>
+        <v>188683</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2363470876040998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2051379103600124</v>
+        <v>0.2052703768714095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2762902884449516</v>
+        <v>0.271798782112517</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>307</v>
@@ -3247,19 +3247,19 @@
         <v>326203</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>294980</v>
+        <v>296612</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>360376</v>
+        <v>360098</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2337124362987274</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2113423178839921</v>
+        <v>0.2125115015474182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2581962737658866</v>
+        <v>0.257997496746401</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>82168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66598</v>
+        <v>66998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101806</v>
+        <v>100918</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1171246857519829</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09493104430824829</v>
+        <v>0.09550057930390324</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.145117690998167</v>
+        <v>0.1438506439407267</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -3297,19 +3297,19 @@
         <v>76749</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60322</v>
+        <v>60514</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94808</v>
+        <v>94298</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1105572041001271</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08689397274638819</v>
+        <v>0.08717098460375637</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1365720854392834</v>
+        <v>0.1358370465178399</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -3318,19 +3318,19 @@
         <v>158917</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>134580</v>
+        <v>136438</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>182410</v>
+        <v>184365</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.113858221787382</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09642169679616105</v>
+        <v>0.09775311719134742</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1306903264234987</v>
+        <v>0.1320909911956006</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>21212</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13143</v>
+        <v>14291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30678</v>
+        <v>32935</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0302364278533325</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01873398300683636</v>
+        <v>0.02037110177522347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04372996750556535</v>
+        <v>0.04694703320363381</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3368,19 +3368,19 @@
         <v>31725</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21673</v>
+        <v>21174</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44497</v>
+        <v>45413</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04570054889943106</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03121965256359369</v>
+        <v>0.03050155596526944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06409817531013676</v>
+        <v>0.06541786640411142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -3389,19 +3389,19 @@
         <v>52938</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39720</v>
+        <v>40249</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70926</v>
+        <v>69872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03792780741387287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0284576859352444</v>
+        <v>0.02883709968355699</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05081567156112475</v>
+        <v>0.05006044996945151</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>5138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1948</v>
+        <v>1929</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11339</v>
+        <v>11424</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007323406720398574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002776899544609259</v>
+        <v>0.002749789539126534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01616341768367374</v>
+        <v>0.01628434307906761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3439,19 +3439,19 @@
         <v>15199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8932</v>
+        <v>8919</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23664</v>
+        <v>24164</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02189471948242942</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01286670262354562</v>
+        <v>0.01284744135024581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0340875885829808</v>
+        <v>0.03480827573826194</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -3460,19 +3460,19 @@
         <v>20337</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12477</v>
+        <v>12255</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30494</v>
+        <v>31118</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01457073082074892</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008939550253192039</v>
+        <v>0.008780308484597909</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0218478165874065</v>
+        <v>0.02229458016805171</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>555965</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>524030</v>
+        <v>522558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>587880</v>
+        <v>586869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.547800318107843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5163341976572169</v>
+        <v>0.5148836232754032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5792462065829972</v>
+        <v>0.5782501159890573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>486</v>
@@ -3585,19 +3585,19 @@
         <v>536100</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>502293</v>
+        <v>501639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>568438</v>
+        <v>569549</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5199281806740118</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4871414087564798</v>
+        <v>0.4865064392887784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5512906324298955</v>
+        <v>0.5523683117354048</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1002</v>
@@ -3606,19 +3606,19 @@
         <v>1092065</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1044289</v>
+        <v>1045436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1137479</v>
+        <v>1136521</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5337539115031739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5104033323921008</v>
+        <v>0.5109636596927599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5559501725911493</v>
+        <v>0.5554819443820478</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>266335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240292</v>
+        <v>238263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297666</v>
+        <v>298193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2624232347293752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2367630603839814</v>
+        <v>0.234764006943009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2932948884729751</v>
+        <v>0.2938133812293945</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -3656,19 +3656,19 @@
         <v>273721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243455</v>
+        <v>246176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302505</v>
+        <v>301348</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2654639539898904</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2361106417829199</v>
+        <v>0.2387499199944496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2933796771330106</v>
+        <v>0.2922574001253442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>498</v>
@@ -3677,19 +3677,19 @@
         <v>540055</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>499641</v>
+        <v>499182</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>580295</v>
+        <v>582723</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2639556317048581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2442028303775166</v>
+        <v>0.243978448094875</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2836232190839866</v>
+        <v>0.284809877958374</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>135542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>113388</v>
+        <v>114771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161620</v>
+        <v>162491</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1335513016108871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1117231260053364</v>
+        <v>0.1130857498686641</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1592461521913289</v>
+        <v>0.160104561628247</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>131</v>
@@ -3727,19 +3727,19 @@
         <v>143197</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122485</v>
+        <v>120924</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>168065</v>
+        <v>166456</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1388778030093591</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1187897899604891</v>
+        <v>0.1172765222739534</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1629954040623591</v>
+        <v>0.1614343394252317</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>252</v>
@@ -3748,19 +3748,19 @@
         <v>278739</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>249196</v>
+        <v>247472</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>313148</v>
+        <v>312361</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1362356384186004</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1217963037864095</v>
+        <v>0.1209534546780158</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1530533453289376</v>
+        <v>0.1526683677517327</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>48780</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34819</v>
+        <v>35621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64558</v>
+        <v>65203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04806372521279401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03430730997293119</v>
+        <v>0.0350975576887531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06360994803280258</v>
+        <v>0.0642455649022175</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -3798,19 +3798,19 @@
         <v>62072</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48894</v>
+        <v>48091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79497</v>
+        <v>82895</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06019974872017098</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04741936573052114</v>
+        <v>0.04664070207012506</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07709852252941919</v>
+        <v>0.0803945961216702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -3819,19 +3819,19 @@
         <v>110852</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92015</v>
+        <v>91117</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135255</v>
+        <v>133515</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0541797800418552</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04497316555960386</v>
+        <v>0.04453417781501548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06610689016040072</v>
+        <v>0.06525624629123898</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>8283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3982</v>
+        <v>4109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15549</v>
+        <v>16387</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00816142033910067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00392317596192682</v>
+        <v>0.00404872414492906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01532075756716548</v>
+        <v>0.01614603015299272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -3869,19 +3869,19 @@
         <v>16013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27622</v>
+        <v>27328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01553031360656762</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008995006343409445</v>
+        <v>0.008990245812820983</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02678893950523474</v>
+        <v>0.02650333099426298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -3890,19 +3890,19 @@
         <v>24296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15712</v>
+        <v>15745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38501</v>
+        <v>37839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01187503833151248</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007679414666516056</v>
+        <v>0.007695526122840062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01881738009428299</v>
+        <v>0.01849415579595198</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>457281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>427994</v>
+        <v>430897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>485161</v>
+        <v>488240</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6070934894841304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5682120542712917</v>
+        <v>0.5720650752395807</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6441069735305812</v>
+        <v>0.6481953949010871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>377</v>
@@ -4015,19 +4015,19 @@
         <v>415636</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387657</v>
+        <v>384057</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>444109</v>
+        <v>445411</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5363874434142779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5002798309917833</v>
+        <v>0.4956330599540369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5731314150411918</v>
+        <v>0.5748119857985706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>794</v>
@@ -4036,19 +4036,19 @@
         <v>872917</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>832099</v>
+        <v>832031</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>912773</v>
+        <v>912914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5712395622975994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5445282881336122</v>
+        <v>0.5444837917669019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5973215028124143</v>
+        <v>0.597413916860459</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>178872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154283</v>
+        <v>156755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204396</v>
+        <v>204111</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2374729275331822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.204827893476012</v>
+        <v>0.2081106463777601</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2713597725055871</v>
+        <v>0.2709815740495819</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -4086,19 +4086,19 @@
         <v>197530</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>173984</v>
+        <v>173074</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>223065</v>
+        <v>224251</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2549159678135605</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2245296468748657</v>
+        <v>0.2233557119874783</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2878700954721728</v>
+        <v>0.2894006535531404</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>344</v>
@@ -4107,19 +4107,19 @@
         <v>376401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>340767</v>
+        <v>341926</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409043</v>
+        <v>411663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.246318019726664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2229991999718989</v>
+        <v>0.2237576856463188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2676789649750399</v>
+        <v>0.2693937813875257</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>88462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71295</v>
+        <v>71411</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>109544</v>
+        <v>108896</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1174437792969125</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0946517081227421</v>
+        <v>0.09480683447987472</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1454317854664541</v>
+        <v>0.1445720424029736</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -4157,19 +4157,19 @@
         <v>114096</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92659</v>
+        <v>93775</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>137140</v>
+        <v>135017</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1472430247533398</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1195788550276636</v>
+        <v>0.1210181280276085</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1769822325918206</v>
+        <v>0.1742423227080524</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>182</v>
@@ -4178,19 +4178,19 @@
         <v>202558</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>178206</v>
+        <v>174755</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>234128</v>
+        <v>230563</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1325545093715767</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1166188408309107</v>
+        <v>0.1143601620521169</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.153214204029461</v>
+        <v>0.1508812175654193</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>17958</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10661</v>
+        <v>10509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29324</v>
+        <v>29698</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02384160529698188</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01415308953003729</v>
+        <v>0.01395247133548368</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03893072338522013</v>
+        <v>0.03942693151723236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -4228,19 +4228,19 @@
         <v>35295</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24613</v>
+        <v>25028</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48034</v>
+        <v>49299</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04554876735164898</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03176387520017128</v>
+        <v>0.03229903737625811</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06198915521800502</v>
+        <v>0.0636210381642138</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -4249,19 +4249,19 @@
         <v>53253</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40353</v>
+        <v>39315</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70358</v>
+        <v>68988</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03484896677446246</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02640742956229977</v>
+        <v>0.02572801069267081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04604221778946826</v>
+        <v>0.0451458212547813</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>10657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5408</v>
+        <v>4818</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20183</v>
+        <v>20635</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01414819838879292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007179900954271908</v>
+        <v>0.006396673421677515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02679515853708525</v>
+        <v>0.02739495914761867</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -4299,19 +4299,19 @@
         <v>12324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6324</v>
+        <v>6116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21256</v>
+        <v>20549</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0159047966671727</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008161759357700357</v>
+        <v>0.007893450722769533</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02743119470018617</v>
+        <v>0.02651860670376596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -4320,19 +4320,19 @@
         <v>22981</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14560</v>
+        <v>13521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36299</v>
+        <v>33910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01503894182969745</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009527799091026435</v>
+        <v>0.008848046291893456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02375417270190016</v>
+        <v>0.022190797474703</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>489287</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>456718</v>
+        <v>456373</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>518811</v>
+        <v>520244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5173488845060007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4829110891678699</v>
+        <v>0.4825471061721625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5485656424885564</v>
+        <v>0.5500806381984128</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>468</v>
@@ -4445,19 +4445,19 @@
         <v>489286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>456949</v>
+        <v>459084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>521156</v>
+        <v>524160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4669913566718101</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4361276669678087</v>
+        <v>0.4381653401930517</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4974090356009975</v>
+        <v>0.5002761805113533</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>943</v>
@@ -4466,19 +4466,19 @@
         <v>978573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>925704</v>
+        <v>933654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1022614</v>
+        <v>1024477</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.490882045276308</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4643614085340758</v>
+        <v>0.4683492760007185</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5129743877743379</v>
+        <v>0.5139090685719457</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>299124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>270169</v>
+        <v>271014</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>331105</v>
+        <v>332195</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3162797310045604</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2856631667744555</v>
+        <v>0.2865567696146165</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3500944410064291</v>
+        <v>0.3512472623436859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>322</v>
@@ -4516,19 +4516,19 @@
         <v>336370</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>305961</v>
+        <v>306812</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>366683</v>
+        <v>367121</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3210429238336013</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2920197290695262</v>
+        <v>0.2928321036338119</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.349975283445867</v>
+        <v>0.3503926800607157</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>609</v>
@@ -4537,19 +4537,19 @@
         <v>635494</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>591388</v>
+        <v>593047</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>680437</v>
+        <v>675059</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3187831632469323</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2966582003679609</v>
+        <v>0.2974906489381777</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3413280622115444</v>
+        <v>0.338630461239786</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>103455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84100</v>
+        <v>84584</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>125821</v>
+        <v>124752</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.109388482333153</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08892285291102271</v>
+        <v>0.08943545950561752</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1330369484307856</v>
+        <v>0.131907175962309</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>140</v>
@@ -4587,19 +4587,19 @@
         <v>147795</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>126516</v>
+        <v>127549</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>171915</v>
+        <v>171095</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1410606079950474</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1207510850894208</v>
+        <v>0.121736913326391</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1640819930954742</v>
+        <v>0.1632986119392746</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>236</v>
@@ -4608,19 +4608,19 @@
         <v>251250</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>221486</v>
+        <v>224660</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>283706</v>
+        <v>284421</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1260346739555074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1111039597538148</v>
+        <v>0.1126963901253611</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1423153687662337</v>
+        <v>0.1426742004311527</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>40215</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29092</v>
+        <v>28348</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55246</v>
+        <v>54395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04252126196900222</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03076024336557793</v>
+        <v>0.02997390617479681</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05841455641253298</v>
+        <v>0.05751485438464975</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -4658,19 +4658,19 @@
         <v>46506</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33829</v>
+        <v>33897</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60579</v>
+        <v>62268</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04438719855634398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03228741606332432</v>
+        <v>0.0323527471981717</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0578189294828334</v>
+        <v>0.05943052286587723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -4679,19 +4679,19 @@
         <v>86721</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69926</v>
+        <v>68804</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>107879</v>
+        <v>104408</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04350195831757168</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03507705538269393</v>
+        <v>0.03451441712369135</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05411515943378151</v>
+        <v>0.05237438517441414</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>13677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6874</v>
+        <v>7104</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25214</v>
+        <v>24874</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01446164018728364</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007267893720359177</v>
+        <v>0.007511396610841692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02666022001787885</v>
+        <v>0.02630103203032552</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -4729,19 +4729,19 @@
         <v>27784</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17685</v>
+        <v>18120</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40771</v>
+        <v>41320</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02651791294319724</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01687895465565067</v>
+        <v>0.01729416909357108</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03891298675789701</v>
+        <v>0.0394368305350454</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>36</v>
@@ -4750,19 +4750,19 @@
         <v>41461</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29640</v>
+        <v>29161</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56988</v>
+        <v>58334</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02079815920368062</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01486844909873268</v>
+        <v>0.01462815465741173</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0285867778469655</v>
+        <v>0.02926205820033688</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1933428</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1873980</v>
+        <v>1875850</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1994720</v>
+        <v>1994401</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5660852535415332</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5486796044845024</v>
+        <v>0.5492271272010201</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5840309046232208</v>
+        <v>0.5839374318289087</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1713</v>
@@ -4875,19 +4875,19 @@
         <v>1847476</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1784510</v>
+        <v>1784775</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1907810</v>
+        <v>1903569</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5207202444076556</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5029728591178111</v>
+        <v>0.5030475529265783</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5377256530083236</v>
+        <v>0.5365301314926965</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3536</v>
@@ -4896,19 +4896,19 @@
         <v>3780905</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3695668</v>
+        <v>3699573</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3862534</v>
+        <v>3870322</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5429711791390227</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5307303705093553</v>
+        <v>0.5312912061302006</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5546938677686161</v>
+        <v>0.555812294636079</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>906461</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>853376</v>
+        <v>851958</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>957768</v>
+        <v>960726</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2654012101834737</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2498585005900207</v>
+        <v>0.2494434757233953</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2804234658242002</v>
+        <v>0.2812893759948071</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>908</v>
@@ -4946,19 +4946,19 @@
         <v>971692</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>915265</v>
+        <v>922245</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1025611</v>
+        <v>1031582</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2738761872592425</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2579717809268737</v>
+        <v>0.2599392151904858</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2890734817014885</v>
+        <v>0.2907565121966468</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1758</v>
@@ -4967,19 +4967,19 @@
         <v>1878153</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1809008</v>
+        <v>1797657</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1960402</v>
+        <v>1951450</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2697193235141862</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.259789446470144</v>
+        <v>0.2581592867211446</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2815309613479742</v>
+        <v>0.2802454146405265</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>409627</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>370983</v>
+        <v>373710</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>453224</v>
+        <v>450502</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1199340532358195</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1086195425598905</v>
+        <v>0.1094179970828181</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1326988105791975</v>
+        <v>0.1319018918478318</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>444</v>
@@ -5017,19 +5017,19 @@
         <v>481837</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>444846</v>
+        <v>438692</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>527573</v>
+        <v>524977</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1358080933070662</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1253821494156024</v>
+        <v>0.1236475006588604</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1486989199092535</v>
+        <v>0.1479673413800568</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>816</v>
@@ -5038,19 +5038,19 @@
         <v>891464</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>837698</v>
+        <v>836930</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>951473</v>
+        <v>954856</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1280220873899056</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1203008226141434</v>
+        <v>0.1201905497723201</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1366398195714868</v>
+        <v>0.1371257156669595</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>128165</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>107476</v>
+        <v>107918</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>153700</v>
+        <v>155309</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03752531292783196</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0314678077498713</v>
+        <v>0.03159702087387139</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04500151044289109</v>
+        <v>0.04547270768114701</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>159</v>
@@ -5088,19 +5088,19 @@
         <v>175599</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>148785</v>
+        <v>149812</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>203721</v>
+        <v>202907</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04949333322407971</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04193591899891044</v>
+        <v>0.04222520699765397</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05741976664925061</v>
+        <v>0.05719027037303594</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>279</v>
@@ -5109,19 +5109,19 @@
         <v>303764</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>271603</v>
+        <v>270886</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>343400</v>
+        <v>343915</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04362317815170657</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03900456802693428</v>
+        <v>0.03890165846307446</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04931518964692405</v>
+        <v>0.04938926962905197</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>37755</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26093</v>
+        <v>25898</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54201</v>
+        <v>54033</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01105417011134155</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00763976268666048</v>
+        <v>0.007582550240467919</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01586945487840453</v>
+        <v>0.01582021013394188</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>65</v>
@@ -5159,19 +5159,19 @@
         <v>71321</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>54077</v>
+        <v>54881</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>91034</v>
+        <v>90635</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02010214180195603</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01524174035386741</v>
+        <v>0.01546851618631092</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02565845744303967</v>
+        <v>0.02554599568491545</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>98</v>
@@ -5180,19 +5180,19 @@
         <v>109076</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>86953</v>
+        <v>89804</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>131702</v>
+        <v>131786</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01566423180517893</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01248723036073507</v>
+        <v>0.01289668744173657</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01891351586224413</v>
+        <v>0.01892562383886949</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>306951</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>277141</v>
+        <v>280879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>332200</v>
+        <v>332146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4555909577837574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4113465077796635</v>
+        <v>0.4168935318515936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4930670031242406</v>
+        <v>0.4929874458906223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>309</v>
@@ -5545,19 +5545,19 @@
         <v>310262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>285002</v>
+        <v>283760</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>337006</v>
+        <v>335517</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4631088113844933</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4254050506496265</v>
+        <v>0.423551200223827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5030291165125148</v>
+        <v>0.5008063660011933</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>606</v>
@@ -5566,19 +5566,19 @@
         <v>617212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>581634</v>
+        <v>581461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>657642</v>
+        <v>655746</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4593392889669387</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4328613757610282</v>
+        <v>0.4327327051545915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4894283373374207</v>
+        <v>0.4880167364560196</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>225573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>203530</v>
+        <v>201317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251203</v>
+        <v>249848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3348066504989927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3020893301090309</v>
+        <v>0.2988046480878765</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3728479376419163</v>
+        <v>0.3708363805371702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -5616,19 +5616,19 @@
         <v>209508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>184359</v>
+        <v>186122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232301</v>
+        <v>233135</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3127194305938845</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2751823105340104</v>
+        <v>0.2778134252243898</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3467418887300787</v>
+        <v>0.3479872663536838</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>429</v>
@@ -5637,19 +5637,19 @@
         <v>435081</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>400373</v>
+        <v>400240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>469749</v>
+        <v>469960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3237941701399719</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2979640344227858</v>
+        <v>0.2978652589397999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.349595022381013</v>
+        <v>0.3497520554087906</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>101940</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83418</v>
+        <v>83776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120904</v>
+        <v>122669</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1513044053249704</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1238136391967298</v>
+        <v>0.1243448255936924</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1794516622693321</v>
+        <v>0.1820711122853994</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>106</v>
@@ -5687,19 +5687,19 @@
         <v>107941</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>91276</v>
+        <v>90576</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>127076</v>
+        <v>127035</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1611165422687816</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1362416195633182</v>
+        <v>0.1351973141818529</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1896790521906372</v>
+        <v>0.189616854576612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>202</v>
@@ -5708,19 +5708,19 @@
         <v>209881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>183386</v>
+        <v>185852</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240184</v>
+        <v>237043</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1561966446306855</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1364787544334135</v>
+        <v>0.1383140625032885</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1787488958756295</v>
+        <v>0.1764113916298597</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>31835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22053</v>
+        <v>22477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44693</v>
+        <v>46047</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04725058373800031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03273258287213873</v>
+        <v>0.03336146959434143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06633500529037939</v>
+        <v>0.06834473736169683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -5758,19 +5758,19 @@
         <v>33595</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22931</v>
+        <v>22999</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46640</v>
+        <v>47720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05014500712428695</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03422764291129785</v>
+        <v>0.03432956995557855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06961639237125819</v>
+        <v>0.07122933639403776</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -5779,19 +5779,19 @@
         <v>65430</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50162</v>
+        <v>49910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83256</v>
+        <v>84524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04869371604840939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03733128672280275</v>
+        <v>0.0371439912583213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06196047283613834</v>
+        <v>0.06290379431121018</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>7443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3274</v>
+        <v>3182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14915</v>
+        <v>15365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0110474026542792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004859756329479738</v>
+        <v>0.004723581021200443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02213762121862944</v>
+        <v>0.02280503157918198</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5829,19 +5829,19 @@
         <v>8649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3973</v>
+        <v>3452</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16907</v>
+        <v>15847</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01291020862855356</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005930894029185707</v>
+        <v>0.005153273610072662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02523628928679132</v>
+        <v>0.02365440234156369</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -5850,19 +5850,19 @@
         <v>16092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9314</v>
+        <v>9029</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25205</v>
+        <v>25113</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01197618021399457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006931324638223622</v>
+        <v>0.006719643769290636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01875772415798789</v>
+        <v>0.01868953567757982</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>517797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>484292</v>
+        <v>485650</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>551412</v>
+        <v>550188</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5064374673481066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4736667582073086</v>
+        <v>0.4749949463388372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5393144812967864</v>
+        <v>0.5381170356214254</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>497</v>
@@ -5975,19 +5975,19 @@
         <v>516966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>483273</v>
+        <v>483873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>550695</v>
+        <v>548642</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4961807499864944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4638422762494792</v>
+        <v>0.4644182284715878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5285533986544436</v>
+        <v>0.5265826530103583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>981</v>
@@ -5996,19 +5996,19 @@
         <v>1034764</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>984505</v>
+        <v>990964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1076945</v>
+        <v>1077791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5012607644222858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4769145573568008</v>
+        <v>0.480043268219032</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5216945041336863</v>
+        <v>0.5221042622608539</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>331998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>301683</v>
+        <v>302905</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>365356</v>
+        <v>361910</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3247142694263207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2950646614312928</v>
+        <v>0.2962592075435767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3573408280976633</v>
+        <v>0.353969717026547</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -6046,19 +6046,19 @@
         <v>348624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316859</v>
+        <v>316386</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>378490</v>
+        <v>381568</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3346072488551983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3041193194161876</v>
+        <v>0.3036651566937249</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3632722472319073</v>
+        <v>0.3662266657273546</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -6067,19 +6067,19 @@
         <v>680622</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640270</v>
+        <v>634826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>727156</v>
+        <v>722926</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3297073889351247</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3101598884139462</v>
+        <v>0.3075228048920654</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3522493145110057</v>
+        <v>0.3502001551218468</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>128802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108497</v>
+        <v>108559</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151494</v>
+        <v>151832</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1259763077211871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1061170661555805</v>
+        <v>0.1061771638172609</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1481702854915384</v>
+        <v>0.1485009535616371</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -6117,19 +6117,19 @@
         <v>129942</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108654</v>
+        <v>105745</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>155643</v>
+        <v>152508</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1247174432842825</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1042853251013588</v>
+        <v>0.1014932318883192</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1493852414943175</v>
+        <v>0.1463763113447267</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>237</v>
@@ -6138,19 +6138,19 @@
         <v>258744</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>228900</v>
+        <v>229797</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>291576</v>
+        <v>291564</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1253409419424511</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1108836668299665</v>
+        <v>0.1113185922860404</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1412455202375055</v>
+        <v>0.1412394467734819</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>35838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25263</v>
+        <v>26366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49787</v>
+        <v>50871</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03505131298068925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02470909693041973</v>
+        <v>0.02578723607538567</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04869464716283729</v>
+        <v>0.04975501862288183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -6188,19 +6188,19 @@
         <v>36601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25785</v>
+        <v>25737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50368</v>
+        <v>51000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03512903857554446</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0247482837962762</v>
+        <v>0.02470267964484631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04834306629045817</v>
+        <v>0.04894903529795139</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -6209,19 +6209,19 @@
         <v>72438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56571</v>
+        <v>56660</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91444</v>
+        <v>90609</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03509054213170437</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02740414193528631</v>
+        <v>0.02744734962133171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04429712381206469</v>
+        <v>0.04389275945104208</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>7996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3858</v>
+        <v>3901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15128</v>
+        <v>15633</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007820642523696368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003773203637535977</v>
+        <v>0.00381550311368592</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01479641385916448</v>
+        <v>0.01528978756511109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -6259,19 +6259,19 @@
         <v>9758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4497</v>
+        <v>4370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19833</v>
+        <v>19166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009365519298480394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00431656618481347</v>
+        <v>0.004194356188186222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01903522599492489</v>
+        <v>0.01839521618134475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -6280,19 +6280,19 @@
         <v>17754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10428</v>
+        <v>10612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28666</v>
+        <v>28896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008600362568433951</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005051418115595955</v>
+        <v>0.005140837209276151</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01388633534825655</v>
+        <v>0.0139976603365964</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>275157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>247563</v>
+        <v>249463</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>302784</v>
+        <v>302536</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3632835955116644</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3268513801356288</v>
+        <v>0.3293596402531097</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3997586856345101</v>
+        <v>0.3994314243299243</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>299</v>
@@ -6405,19 +6405,19 @@
         <v>308315</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>283023</v>
+        <v>282815</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>336343</v>
+        <v>336481</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3946345444058028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3622626081283917</v>
+        <v>0.3619962786912257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.430509995262668</v>
+        <v>0.430686256318155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>551</v>
@@ -6426,19 +6426,19 @@
         <v>583472</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>545925</v>
+        <v>543464</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>624148</v>
+        <v>620355</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3792020403290409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.354800311856935</v>
+        <v>0.3532008699846337</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4056375563250046</v>
+        <v>0.4031725089395791</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>307948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>277504</v>
+        <v>280943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>335426</v>
+        <v>339287</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4065772107981677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3663827096840318</v>
+        <v>0.3709221971165569</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4428556358738358</v>
+        <v>0.4479523730883404</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>259</v>
@@ -6476,19 +6476,19 @@
         <v>279324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>252452</v>
+        <v>254937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>307328</v>
+        <v>308975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3575272027270227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3231321378359888</v>
+        <v>0.3263122939966114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3933711532051156</v>
+        <v>0.3954795097119811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>543</v>
@@ -6497,19 +6497,19 @@
         <v>587272</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>550339</v>
+        <v>548417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>626542</v>
+        <v>623612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3816720683921472</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3576691486185733</v>
+        <v>0.3564197860231131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4071939515876934</v>
+        <v>0.4052896697693724</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>142519</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122103</v>
+        <v>121721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>165773</v>
+        <v>164384</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1881641644864543</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1612102432718284</v>
+        <v>0.1607052224427845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2188666596964203</v>
+        <v>0.217031997912108</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>140</v>
@@ -6547,19 +6547,19 @@
         <v>154869</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>132692</v>
+        <v>131649</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>179682</v>
+        <v>178767</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1982285508149718</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1698423199033633</v>
+        <v>0.1685076545528928</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2299888279379149</v>
+        <v>0.2288173733154391</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>267</v>
@@ -6568,19 +6568,19 @@
         <v>297388</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>264376</v>
+        <v>267685</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>331180</v>
+        <v>331933</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1932743568105283</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1718196780381236</v>
+        <v>0.1739702880754171</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2152357197210529</v>
+        <v>0.2157251013201645</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>23627</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15549</v>
+        <v>14909</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35327</v>
+        <v>34614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03119391714174741</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02052918975283105</v>
+        <v>0.01968434155443921</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0466412061745639</v>
+        <v>0.04569994817746065</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -6618,19 +6618,19 @@
         <v>31765</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22332</v>
+        <v>21230</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44693</v>
+        <v>43351</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04065882597841195</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02858423501236495</v>
+        <v>0.02717419542788334</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05720556764745676</v>
+        <v>0.05548815381285203</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -6639,19 +6639,19 @@
         <v>55392</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41255</v>
+        <v>42166</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71664</v>
+        <v>71739</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03599972475945919</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0268120668446191</v>
+        <v>0.02740406917814115</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04657457087164577</v>
+        <v>0.04662347376230543</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>8166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3286</v>
+        <v>3394</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16863</v>
+        <v>17340</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0107811120619661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004338271628088847</v>
+        <v>0.004480675563688072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02226357005159588</v>
+        <v>0.0228939840576546</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -6689,19 +6689,19 @@
         <v>6993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3334</v>
+        <v>3138</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15135</v>
+        <v>14945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008950876073790706</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004267432804671683</v>
+        <v>0.00401638291606249</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01937248125529737</v>
+        <v>0.01912948987361283</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -6710,19 +6710,19 @@
         <v>15159</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8241</v>
+        <v>7963</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26241</v>
+        <v>24980</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009851809708824454</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005355661001074634</v>
+        <v>0.005175172573079443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01705418312739559</v>
+        <v>0.01623464375111812</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>479426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>449134</v>
+        <v>449657</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>507324</v>
+        <v>510644</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5131684854690579</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4807450571100687</v>
+        <v>0.48130429522291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5430302575174627</v>
+        <v>0.546583828845587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>483</v>
@@ -6835,19 +6835,19 @@
         <v>518230</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>485741</v>
+        <v>486212</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>553427</v>
+        <v>553691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4988822461316403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4676063054161677</v>
+        <v>0.4680596925776631</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5327652579478908</v>
+        <v>0.5330189024793478</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>956</v>
@@ -6856,19 +6856,19 @@
         <v>997655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>949263</v>
+        <v>951167</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1045474</v>
+        <v>1042482</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5056469022703013</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4811196633049192</v>
+        <v>0.4820847813718239</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5298831332684135</v>
+        <v>0.5283663142293293</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>279284</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247964</v>
+        <v>252864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>306459</v>
+        <v>307436</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2989408536307945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2654162546664469</v>
+        <v>0.2706609953817937</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3280279712977286</v>
+        <v>0.3290735799664193</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>275</v>
@@ -6906,19 +6906,19 @@
         <v>299340</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>267309</v>
+        <v>269496</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>328383</v>
+        <v>332386</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2881640939785642</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.257328588533087</v>
+        <v>0.25943461818743</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3161224413826282</v>
+        <v>0.3199767605877692</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>558</v>
@@ -6927,19 +6927,19 @@
         <v>578624</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>536636</v>
+        <v>532395</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>621008</v>
+        <v>617036</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2932669815625203</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2719858447731973</v>
+        <v>0.26983661254171</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3147486054872004</v>
+        <v>0.3127354438210904</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>128220</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>108224</v>
+        <v>106781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>149471</v>
+        <v>150297</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1372443828799496</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.11584146852292</v>
+        <v>0.1142959720633469</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1599908508076726</v>
+        <v>0.1608746896438307</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>136</v>
@@ -6977,19 +6977,19 @@
         <v>152828</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>129723</v>
+        <v>130772</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>176942</v>
+        <v>178400</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1471221493178889</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1248796625181251</v>
+        <v>0.1258895930158231</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1703358601878783</v>
+        <v>0.1717390370503075</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>263</v>
@@ -6998,19 +6998,19 @@
         <v>281048</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>249978</v>
+        <v>252370</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>313100</v>
+        <v>315736</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1424449426862139</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1266974126351174</v>
+        <v>0.1279098882736164</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1586900664720919</v>
+        <v>0.160025992933774</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>34843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24451</v>
+        <v>24198</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49246</v>
+        <v>48010</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03729574345220096</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0261722375619044</v>
+        <v>0.02590142334553081</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05271173750732726</v>
+        <v>0.05138916843921087</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -7048,19 +7048,19 @@
         <v>51374</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37917</v>
+        <v>38928</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67415</v>
+        <v>68516</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04945607123135997</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03650116308928846</v>
+        <v>0.03747482638209487</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06489804981170111</v>
+        <v>0.06595824635233408</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -7069,19 +7069,19 @@
         <v>86217</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68074</v>
+        <v>68214</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>105746</v>
+        <v>105888</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04369805234223453</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03450237219379212</v>
+        <v>0.03457303685248157</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05359556883058325</v>
+        <v>0.05366761817283287</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>12473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6376</v>
+        <v>7016</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20316</v>
+        <v>22353</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01335053456799697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006824797772699753</v>
+        <v>0.007509757423801924</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02174604814448198</v>
+        <v>0.02392657355955981</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -7119,19 +7119,19 @@
         <v>17011</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9371</v>
+        <v>9279</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28690</v>
+        <v>28518</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01637543934054662</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009020991006273599</v>
+        <v>0.008932325231435181</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02761880616449385</v>
+        <v>0.02745338285375018</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -7140,19 +7140,19 @@
         <v>29483</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18959</v>
+        <v>19795</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42087</v>
+        <v>44062</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01494312113872993</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009609143854832041</v>
+        <v>0.01003303553291751</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02133104039269159</v>
+        <v>0.02233231591553207</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1579330</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1516464</v>
+        <v>1524641</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1644689</v>
+        <v>1639663</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4661769115415567</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4476203045651775</v>
+        <v>0.4500341518516315</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4854691445460202</v>
+        <v>0.4839855483145632</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1588</v>
@@ -7265,19 +7265,19 @@
         <v>1653773</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1596650</v>
+        <v>1595312</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1713303</v>
+        <v>1720449</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.46823963769113</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.452066123565229</v>
+        <v>0.4516874827014689</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.485094642127645</v>
+        <v>0.487117998637665</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3094</v>
@@ -7286,19 +7286,19 @@
         <v>3233103</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3139270</v>
+        <v>3138505</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3317210</v>
+        <v>3311311</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4672297461328278</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4536694303529707</v>
+        <v>0.4535589901737849</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4793844183744267</v>
+        <v>0.478531919048798</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1144804</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1088696</v>
+        <v>1088420</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1202945</v>
+        <v>1195649</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3379160091484875</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3213545729371539</v>
+        <v>0.321273064864829</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3550778903285942</v>
+        <v>0.3529243416488194</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1064</v>
@@ -7336,19 +7336,19 @@
         <v>1136796</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1083086</v>
+        <v>1072265</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1192104</v>
+        <v>1190244</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3218657621997051</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3066587933270622</v>
+        <v>0.3035950370517991</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3375255283136425</v>
+        <v>0.3369987631929107</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2157</v>
@@ -7357,19 +7357,19 @@
         <v>2281599</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2197373</v>
+        <v>2208979</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2357584</v>
+        <v>2374426</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3297238139850056</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3175518658203589</v>
+        <v>0.3192290819202042</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3407046503852866</v>
+        <v>0.3431385980290051</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>501481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>459948</v>
+        <v>461093</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>541913</v>
+        <v>542604</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1480239771141867</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1357645091525296</v>
+        <v>0.1361024522970906</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1599586052917263</v>
+        <v>0.1601625150834993</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>499</v>
@@ -7407,19 +7407,19 @@
         <v>545580</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>506049</v>
+        <v>504761</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>594103</v>
+        <v>592111</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1544723272818097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1432796814757742</v>
+        <v>0.1429152040421629</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1682110104487186</v>
+        <v>0.1676470171354179</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>969</v>
@@ -7428,19 +7428,19 @@
         <v>1047061</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>992613</v>
+        <v>988525</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1111392</v>
+        <v>1114793</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1513152749505509</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1434468396116836</v>
+        <v>0.1428559584062661</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1606121061825506</v>
+        <v>0.1611035600170513</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>126142</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>104863</v>
+        <v>106767</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>150162</v>
+        <v>150623</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03723393072264585</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03095281339277912</v>
+        <v>0.03151470640919734</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04432377875271305</v>
+        <v>0.04445996649220684</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>139</v>
@@ -7478,19 +7478,19 @@
         <v>153335</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>130415</v>
+        <v>129571</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>178327</v>
+        <v>178982</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04341437112916825</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03692507700433652</v>
+        <v>0.03668606570003907</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05049055179424684</v>
+        <v>0.05067580463605358</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>261</v>
@@ -7499,19 +7499,19 @@
         <v>279477</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>248583</v>
+        <v>244023</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>312576</v>
+        <v>314340</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04038848492782846</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03592374616933704</v>
+        <v>0.03526488824146275</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04517172687714338</v>
+        <v>0.0454266380547371</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>36078</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24718</v>
+        <v>25177</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48955</v>
+        <v>49902</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01064917147312328</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007295958118889633</v>
+        <v>0.007431626236274579</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01445022415735153</v>
+        <v>0.01472988781278065</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -7549,19 +7549,19 @@
         <v>42411</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>30024</v>
+        <v>29812</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>59499</v>
+        <v>58907</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01200790169818697</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008500792261602646</v>
+        <v>0.008440874214477272</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01684632058875411</v>
+        <v>0.01667853088739035</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>70</v>
@@ -7570,19 +7570,19 @@
         <v>78488</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>61034</v>
+        <v>62213</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>99974</v>
+        <v>99898</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01134268000378721</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008820307513253332</v>
+        <v>0.008990632583671236</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01444762548487464</v>
+        <v>0.0144366914762317</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>384873</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>358214</v>
+        <v>355778</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>414353</v>
+        <v>412429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.557870648120154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5192284756997518</v>
+        <v>0.5156975550328207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6006024677733837</v>
+        <v>0.5978135019084269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>594</v>
@@ -7935,19 +7935,19 @@
         <v>379991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>358037</v>
+        <v>357172</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>401509</v>
+        <v>402176</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5196036957247463</v>
+        <v>0.5196036957247465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4895836958691969</v>
+        <v>0.4884004374178065</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5490272133634262</v>
+        <v>0.5499393685766383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>971</v>
@@ -7956,19 +7956,19 @@
         <v>764864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>734148</v>
+        <v>725498</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>801809</v>
+        <v>796677</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5381796180510116</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5165668166715777</v>
+        <v>0.5104805252337019</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5641749839733006</v>
+        <v>0.5605643767157646</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>180767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156704</v>
+        <v>156646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202739</v>
+        <v>203875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2620202878031609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2271417343606281</v>
+        <v>0.2270570935259835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2938691603337865</v>
+        <v>0.2955150638874839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>381</v>
@@ -8006,19 +8006,19 @@
         <v>216519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196591</v>
+        <v>196633</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>237244</v>
+        <v>238463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2960706776345008</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2688200018078321</v>
+        <v>0.2688782316542483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3244098950159073</v>
+        <v>0.3260763219024541</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>588</v>
@@ -8027,19 +8027,19 @@
         <v>397286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>369148</v>
+        <v>366566</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>428846</v>
+        <v>431466</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2795416007916339</v>
+        <v>0.279541600791634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.259742852771238</v>
+        <v>0.2579256782789239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3017476867819527</v>
+        <v>0.3035911915066745</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>83069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67256</v>
+        <v>66329</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102321</v>
+        <v>100593</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1204085790763874</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09748644202552062</v>
+        <v>0.09614303242266409</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1483132402581128</v>
+        <v>0.1458091708722653</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>152</v>
@@ -8077,19 +8077,19 @@
         <v>77905</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65826</v>
+        <v>66258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91056</v>
+        <v>92781</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1065285318002123</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09001122893812498</v>
+        <v>0.09060227805536404</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1245109811858306</v>
+        <v>0.1268691201522521</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>249</v>
@@ -8098,19 +8098,19 @@
         <v>160975</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>139950</v>
+        <v>141827</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>182462</v>
+        <v>182599</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1132663215625886</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09847288281708971</v>
+        <v>0.09979315150839453</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1283856098946964</v>
+        <v>0.1284820421946608</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>26117</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17841</v>
+        <v>17952</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37111</v>
+        <v>37527</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03785710895154357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02585989672258406</v>
+        <v>0.02602074857447384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05379182548586769</v>
+        <v>0.05439451412574682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -8148,19 +8148,19 @@
         <v>37226</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29030</v>
+        <v>29558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47138</v>
+        <v>46785</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05090306529641392</v>
+        <v>0.05090306529641393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03969580579123178</v>
+        <v>0.04041787349253878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06445651625236254</v>
+        <v>0.06397491656781606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -8169,19 +8169,19 @@
         <v>63343</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50428</v>
+        <v>52178</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77112</v>
+        <v>77215</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0445701681994598</v>
+        <v>0.04457016819945981</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0354823613019571</v>
+        <v>0.03671368782952547</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05425781511275263</v>
+        <v>0.05433032160370315</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>15070</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9044</v>
+        <v>8481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24420</v>
+        <v>24502</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02184337604875419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01310940891924654</v>
+        <v>0.01229377749615509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03539713168473208</v>
+        <v>0.03551591283735182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -8219,19 +8219,19 @@
         <v>19668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13818</v>
+        <v>13431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27978</v>
+        <v>27316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02689402954412655</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01889493126547413</v>
+        <v>0.01836529370670436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03825726203270335</v>
+        <v>0.03735259556958862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -8240,19 +8240,19 @@
         <v>34738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25879</v>
+        <v>25269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46469</v>
+        <v>45836</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0244422913953061</v>
+        <v>0.02444229139530611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01820896147182559</v>
+        <v>0.01777964101082784</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03269655990352918</v>
+        <v>0.03225150325530342</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>548599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>507138</v>
+        <v>515156</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>581507</v>
+        <v>585214</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5243838709153698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4847530219175336</v>
+        <v>0.4924164576558514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5558386871752921</v>
+        <v>0.5593823738835416</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>698</v>
@@ -8365,19 +8365,19 @@
         <v>524499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>494757</v>
+        <v>492602</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>552302</v>
+        <v>553393</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4903150085161666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.462511924330157</v>
+        <v>0.4604970762449302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5163064310463372</v>
+        <v>0.5173264999386314</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1159</v>
@@ -8386,19 +8386,19 @@
         <v>1073098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1028618</v>
+        <v>1029108</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1116776</v>
+        <v>1120213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5071599383781711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4861379800020211</v>
+        <v>0.4863697177496959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5278025573768033</v>
+        <v>0.5294268127069911</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>336420</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305978</v>
+        <v>301420</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>372904</v>
+        <v>366915</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3215706590603462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2924721803836413</v>
+        <v>0.2881149272836776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3564434106257236</v>
+        <v>0.3507187306012702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -8436,19 +8436,19 @@
         <v>340085</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316246</v>
+        <v>314781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>369981</v>
+        <v>369737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3179201421557761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2956347320845921</v>
+        <v>0.2942658021666565</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3458680508411083</v>
+        <v>0.3456397150496699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>830</v>
@@ -8457,19 +8457,19 @@
         <v>676505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633074</v>
+        <v>634356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>720381</v>
+        <v>718413</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3197250953267099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2991987294391971</v>
+        <v>0.2998045483730107</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3404614617906864</v>
+        <v>0.3395314031124</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>102989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84369</v>
+        <v>82006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>127749</v>
+        <v>123571</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09844337621611217</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08064526041019539</v>
+        <v>0.07838574546107374</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1221101585889415</v>
+        <v>0.1181167243796946</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>209</v>
@@ -8507,19 +8507,19 @@
         <v>135047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>119177</v>
+        <v>118143</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>153731</v>
+        <v>154984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1262456242164416</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1114100490362259</v>
+        <v>0.1104432619747131</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1437121140201972</v>
+        <v>0.1448829673184673</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>311</v>
@@ -8528,19 +8528,19 @@
         <v>238037</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>212299</v>
+        <v>210504</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>266335</v>
+        <v>268797</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.112499144745423</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1003353795258994</v>
+        <v>0.0994868478648511</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1258735420979531</v>
+        <v>0.1270367039669605</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>42727</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31180</v>
+        <v>31653</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59514</v>
+        <v>58420</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04084096366688315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02980415511909739</v>
+        <v>0.03025559601803164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05688742126961185</v>
+        <v>0.05584098862454875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -8578,19 +8578,19 @@
         <v>51110</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41290</v>
+        <v>40629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62006</v>
+        <v>63009</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04777922611007754</v>
+        <v>0.04777922611007755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0385994115133089</v>
+        <v>0.03798091315872128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05796446319540145</v>
+        <v>0.0589027404366005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -8599,19 +8599,19 @@
         <v>93837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78459</v>
+        <v>77953</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113474</v>
+        <v>111648</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04434868760690396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.037080562608472</v>
+        <v>0.0368417874071205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05362914093869801</v>
+        <v>0.05276628282576316</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>15443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9253</v>
+        <v>8921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25128</v>
+        <v>24489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01476113014128858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008844635255680145</v>
+        <v>0.008527162799039053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02401888309609913</v>
+        <v>0.02340835837971446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -8649,19 +8649,19 @@
         <v>18977</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12128</v>
+        <v>12368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33253</v>
+        <v>32679</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01773999900153817</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0113375508252048</v>
+        <v>0.01156237282549824</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03108604850244818</v>
+        <v>0.0305490812830279</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -8670,19 +8670,19 @@
         <v>34420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24440</v>
+        <v>25079</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48835</v>
+        <v>49793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01626713394279213</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01155064936638285</v>
+        <v>0.01185254690419343</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.023080029426099</v>
+        <v>0.02353285389434582</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>397047</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>362637</v>
+        <v>363251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>427618</v>
+        <v>431040</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4957460139907211</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4527828040409632</v>
+        <v>0.4535489615147199</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5339169050286929</v>
+        <v>0.5381889271309859</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>525</v>
@@ -8795,19 +8795,19 @@
         <v>413370</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387193</v>
+        <v>388392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>439797</v>
+        <v>441215</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5112085433684335</v>
+        <v>0.5112085433684336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4788359003586102</v>
+        <v>0.4803177036990933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.543889816321107</v>
+        <v>0.5456440589634434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>845</v>
@@ -8816,19 +8816,19 @@
         <v>810417</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>768137</v>
+        <v>770721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>852375</v>
+        <v>859070</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5035142940971945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4772458794392613</v>
+        <v>0.4788510898808776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.529582732919302</v>
+        <v>0.533742861134484</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>271067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241634</v>
+        <v>243114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>301949</v>
+        <v>308776</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3384491485773646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3016995631648852</v>
+        <v>0.3035474147128067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3770087138045977</v>
+        <v>0.385532041921553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>321</v>
@@ -8866,19 +8866,19 @@
         <v>249275</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>223478</v>
+        <v>224962</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>273932</v>
+        <v>271172</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3082741660417021</v>
+        <v>0.3082741660417022</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2763719397779638</v>
+        <v>0.2782075145371224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3387674670708526</v>
+        <v>0.3353546353308196</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>555</v>
@@ -8887,19 +8887,19 @@
         <v>520341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>482678</v>
+        <v>481576</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>560328</v>
+        <v>560054</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3232894220656827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2998889533248211</v>
+        <v>0.2992047679766351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3481334178629619</v>
+        <v>0.3479633578787659</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>103638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>83088</v>
+        <v>84694</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126089</v>
+        <v>127069</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1294011167423454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1037425295652511</v>
+        <v>0.1057472366734377</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.157432841974143</v>
+        <v>0.1586561305044068</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>144</v>
@@ -8937,19 +8937,19 @@
         <v>110072</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92569</v>
+        <v>92930</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128289</v>
+        <v>129689</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1361238449936951</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1144787948161212</v>
+        <v>0.1149251872617032</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.158652442373288</v>
+        <v>0.1603842772843148</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>237</v>
@@ -8958,19 +8958,19 @@
         <v>213710</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>188018</v>
+        <v>187913</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>241616</v>
+        <v>243567</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1327785742630704</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1168163748087615</v>
+        <v>0.1167508232397469</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1501165480802916</v>
+        <v>0.1513286219306668</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>23803</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14657</v>
+        <v>14632</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41687</v>
+        <v>44714</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02971997433244287</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0183003824432644</v>
+        <v>0.01826933211244259</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05205014626530591</v>
+        <v>0.05582929039754433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -9008,19 +9008,19 @@
         <v>26657</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18770</v>
+        <v>19465</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34866</v>
+        <v>36358</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03296686054782955</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02321215592184591</v>
+        <v>0.02407237794687867</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04311882989404069</v>
+        <v>0.04496305004017045</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -9029,19 +9029,19 @@
         <v>50460</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38336</v>
+        <v>37721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68130</v>
+        <v>67301</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03135119009144584</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02381810807238382</v>
+        <v>0.02343628562293379</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04232963017554448</v>
+        <v>0.04181411051342465</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>5353</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2200</v>
+        <v>1815</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11135</v>
+        <v>11831</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006683746357126067</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002747110692149501</v>
+        <v>0.002266756188645939</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01390354639343223</v>
+        <v>0.01477219027196461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -9079,19 +9079,19 @@
         <v>9240</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5383</v>
+        <v>5027</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15465</v>
+        <v>15420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01142658504833969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006656845960566513</v>
+        <v>0.006217377370704679</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0191252097014774</v>
+        <v>0.01906973310396927</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -9100,19 +9100,19 @@
         <v>14593</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8701</v>
+        <v>9468</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22289</v>
+        <v>23385</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.009066519482606632</v>
+        <v>0.00906651948260663</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005406206225316412</v>
+        <v>0.00588276641676586</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01384795832773516</v>
+        <v>0.01452941024194259</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>568662</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>534694</v>
+        <v>537489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>599007</v>
+        <v>600964</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.575446176886655</v>
+        <v>0.5754461768866551</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5410728286672515</v>
+        <v>0.5439015757912479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6061537366612539</v>
+        <v>0.608133519298368</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>866</v>
@@ -9225,19 +9225,19 @@
         <v>641110</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>615050</v>
+        <v>610700</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>669277</v>
+        <v>670236</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5744612249981249</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5511111107365382</v>
+        <v>0.5472130993089032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5997001134784511</v>
+        <v>0.600559424661135</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1401</v>
@@ -9246,19 +9246,19 @@
         <v>1209771</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1163464</v>
+        <v>1162572</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1252470</v>
+        <v>1252522</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5749237883009092</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5529169485120469</v>
+        <v>0.5524931701747458</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5952156401885313</v>
+        <v>0.5952401924657941</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>257378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>231643</v>
+        <v>228170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>288119</v>
+        <v>284682</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2604491463444514</v>
+        <v>0.2604491463444515</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2344067353549813</v>
+        <v>0.2308926264462593</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2915565695123422</v>
+        <v>0.2880782657882937</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>428</v>
@@ -9296,19 +9296,19 @@
         <v>299458</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>274768</v>
+        <v>271987</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>326981</v>
+        <v>324451</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2683268313455598</v>
+        <v>0.2683268313455599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2462036366560735</v>
+        <v>0.2437117475658504</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.292988809794363</v>
+        <v>0.290721859989318</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>715</v>
@@ -9317,19 +9317,19 @@
         <v>556836</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>520438</v>
+        <v>517901</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>596066</v>
+        <v>598253</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2646272313601806</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2473293202627406</v>
+        <v>0.2461238364446946</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2832703439449317</v>
+        <v>0.2843099233959257</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>95441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78836</v>
+        <v>78202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>113926</v>
+        <v>115866</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09657978525607039</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07977622556671504</v>
+        <v>0.07913542704052387</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.11528546367972</v>
+        <v>0.1172487750278653</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>140</v>
@@ -9367,19 +9367,19 @@
         <v>93851</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>78686</v>
+        <v>78994</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>110290</v>
+        <v>108678</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08409468479488995</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07050628238673093</v>
+        <v>0.0707818323526323</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09882432653833588</v>
+        <v>0.09737996988027509</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>247</v>
@@ -9388,19 +9388,19 @@
         <v>189292</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>164901</v>
+        <v>167042</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>216471</v>
+        <v>214247</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08995806692773024</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07836649816570578</v>
+        <v>0.07938372593658267</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1028744144701118</v>
+        <v>0.1018175643003374</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>50046</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37638</v>
+        <v>37366</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66165</v>
+        <v>66664</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05064344658230542</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03808754077540047</v>
+        <v>0.03781162871356216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06695423374440435</v>
+        <v>0.0674598045159457</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -9438,19 +9438,19 @@
         <v>47486</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37308</v>
+        <v>37657</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59219</v>
+        <v>59175</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04254982788905633</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03342937507252851</v>
+        <v>0.03374270456651048</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05306232304975197</v>
+        <v>0.05302305324736622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>128</v>
@@ -9459,19 +9459,19 @@
         <v>97533</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80764</v>
+        <v>81520</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>116200</v>
+        <v>116933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04635083689043139</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03838196480575884</v>
+        <v>0.03874112605372598</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05522234492480888</v>
+        <v>0.05557062255063921</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>16682</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10308</v>
+        <v>10401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24145</v>
+        <v>26774</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01688144493051762</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01043117743628658</v>
+        <v>0.010524865171022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02443326026312365</v>
+        <v>0.02709305263960526</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -9509,19 +9509,19 @@
         <v>34114</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26050</v>
+        <v>24572</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45139</v>
+        <v>44557</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03056743097236891</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0233422213995739</v>
+        <v>0.02201731891435748</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04044646296815937</v>
+        <v>0.03992503276095807</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>71</v>
@@ -9530,19 +9530,19 @@
         <v>50796</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39763</v>
+        <v>38729</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64619</v>
+        <v>64698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02414007652074883</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01889673967959667</v>
+        <v>0.01840547358402721</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03070888256139825</v>
+        <v>0.03074656633341225</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1899181</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1836843</v>
+        <v>1838431</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1962090</v>
+        <v>1964728</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5387451797290745</v>
+        <v>0.5387451797290747</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5210618160544798</v>
+        <v>0.5215121666324463</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5565908333236588</v>
+        <v>0.5573392024520361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2683</v>
@@ -9655,19 +9655,19 @@
         <v>1958970</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1907005</v>
+        <v>1902329</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2009668</v>
+        <v>2014263</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.52580474002525</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5118568489465057</v>
+        <v>0.5106016740872917</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.539412530475354</v>
+        <v>0.5406459082728993</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4376</v>
@@ -9676,19 +9676,19 @@
         <v>3858150</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3781514</v>
+        <v>3777213</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3946145</v>
+        <v>3944385</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5320960742949449</v>
+        <v>0.532096074294945</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5215267259321563</v>
+        <v>0.520933634458036</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5442317959654651</v>
+        <v>0.5439890644223792</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1045632</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>990162</v>
+        <v>986498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1101857</v>
+        <v>1104807</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.296617039327069</v>
+        <v>0.2966170393270691</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2808817789085256</v>
+        <v>0.2798423483329456</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3125663900913797</v>
+        <v>0.3134033356588373</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1628</v>
@@ -9726,19 +9726,19 @@
         <v>1105337</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1055888</v>
+        <v>1052508</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1153128</v>
+        <v>1154352</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2966821143772123</v>
+        <v>0.2966821143772124</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2834095478777111</v>
+        <v>0.2825022959820829</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3095097026151369</v>
+        <v>0.3098383040134331</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2688</v>
@@ -9747,19 +9747,19 @@
         <v>2150969</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2067588</v>
+        <v>2075136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2221026</v>
+        <v>2223531</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2966504764342646</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2851510572460673</v>
+        <v>0.286191982587224</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.306312435897578</v>
+        <v>0.306657893998707</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>385138</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>348568</v>
+        <v>347493</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>426061</v>
+        <v>425776</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1092531035422021</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09887922851448729</v>
+        <v>0.09857428674928477</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1208616877357504</v>
+        <v>0.1207808830778479</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>645</v>
@@ -9797,19 +9797,19 @@
         <v>416875</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>384349</v>
+        <v>387868</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>447149</v>
+        <v>452545</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1118930289377197</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1031626795206651</v>
+        <v>0.1041070512742234</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1200187469488335</v>
+        <v>0.1214669742741174</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1044</v>
@@ -9818,19 +9818,19 @@
         <v>802014</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>753854</v>
+        <v>757596</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>853471</v>
+        <v>854450</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.110609559945136</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1039676956068166</v>
+        <v>0.1044836480051849</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1177063192593021</v>
+        <v>0.1178412394677725</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>142694</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>121650</v>
+        <v>119057</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>169352</v>
+        <v>169556</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0404782817252767</v>
+        <v>0.04047828172527672</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03450886603154658</v>
+        <v>0.03377318482114611</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04804058405853118</v>
+        <v>0.04809827180480606</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>271</v>
@@ -9868,19 +9868,19 @@
         <v>162480</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>142579</v>
+        <v>144603</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>183125</v>
+        <v>181840</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04361108108176263</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03826943782883414</v>
+        <v>0.03881267269472694</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04915234904599819</v>
+        <v>0.04880756731703672</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>426</v>
@@ -9889,19 +9889,19 @@
         <v>305174</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>274050</v>
+        <v>276359</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>338086</v>
+        <v>340780</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.04208798848192517</v>
+        <v>0.04208798848192518</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0377955612643069</v>
+        <v>0.03811400561805489</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04662704793616018</v>
+        <v>0.04699859461728359</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>52548</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40405</v>
+        <v>40137</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>68821</v>
+        <v>67422</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01490639567637751</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01146168734371159</v>
+        <v>0.01138569464821546</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0195227481060395</v>
+        <v>0.01912563804216162</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>124</v>
@@ -9939,19 +9939,19 @@
         <v>81998</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>67154</v>
+        <v>68302</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>99713</v>
+        <v>99921</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02200903557805531</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01802460432006814</v>
+        <v>0.01833291168294319</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02676390522863656</v>
+        <v>0.0268195484161104</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>184</v>
@@ -9960,19 +9960,19 @@
         <v>134546</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>114321</v>
+        <v>114443</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>156660</v>
+        <v>158381</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01855590084372929</v>
+        <v>0.0185559008437293</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01576657787211997</v>
+        <v>0.0157834513924604</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0216057967947127</v>
+        <v>0.0218430460525146</v>
       </c>
     </row>
     <row r="33">
